--- a/Unidad 3/Asociador_Lineal/Instancia_Ejemplo2.xlsx
+++ b/Unidad 3/Asociador_Lineal/Instancia_Ejemplo2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galek\Desktop\Clase_SE\AmbosGrupos_SE\Asociador_Lineal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2024_1/Unidad 3/Asociador_Lineal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD45CFA-15AC-4974-83E4-09F469CE847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8BDB8-CB89-5C42-8979-3A1DF35AEFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="23260" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instancia_Explicacion_KNN" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>No. Caso</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Mago</t>
+  </si>
+  <si>
+    <t>velocidad</t>
+  </si>
+  <si>
+    <t>vida</t>
+  </si>
+  <si>
+    <t>destreaa</t>
+  </si>
+  <si>
+    <t>fuerza</t>
+  </si>
+  <si>
+    <t>magia</t>
+  </si>
+  <si>
+    <t>inteligencia</t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +384,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -529,8 +553,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -590,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -630,7 +655,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -736,7 +761,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -886,18 +911,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AD29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -905,38 +950,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>80</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>90</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>75</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>70</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>85</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>90</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="S3">
@@ -973,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -998,13 +1043,13 @@
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="S4">
@@ -1041,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1109,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1134,13 +1179,13 @@
       <c r="H6" t="s">
         <v>4</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="S6">
@@ -1177,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1245,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1313,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1381,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1416,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1451,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1486,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1521,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1556,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1591,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1626,8 +1671,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B20">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
         <v>80</v>
       </c>
       <c r="C20">
@@ -1691,8 +1736,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B21">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
         <v>90</v>
       </c>
       <c r="C21">
@@ -1756,8 +1801,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
         <v>75</v>
       </c>
       <c r="C22">
@@ -1821,8 +1866,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
         <v>70</v>
       </c>
       <c r="C23">
@@ -1886,8 +1931,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
         <v>85</v>
       </c>
       <c r="C24">
@@ -1951,8 +1996,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
         <v>90</v>
       </c>
       <c r="C25">
@@ -2016,7 +2061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -2081,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -2146,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1</v>
       </c>
